--- a/ELAND_01/SysSettings.xlsx
+++ b/ELAND_01/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3125DA2-228A-4F56-9458-5B702E3A969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B58E83-961F-43DE-BC5E-486816560332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>Regions</t>
   </si>
@@ -76,6 +76,54 @@
     <t>DayNite</t>
   </si>
   <si>
+    <t>ELAND</t>
+  </si>
+  <si>
+    <t>ELD</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>S1W1D1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>S1W1D2</t>
+  </si>
+  <si>
+    <t>S1W2D1</t>
+  </si>
+  <si>
+    <t>S1W2D2</t>
+  </si>
+  <si>
+    <t>S2W1D1</t>
+  </si>
+  <si>
+    <t>S2W1D2</t>
+  </si>
+  <si>
+    <t>S2W2D1</t>
+  </si>
+  <si>
+    <t>S2W2D2</t>
+  </si>
+  <si>
     <t>Start Year</t>
   </si>
   <si>
@@ -139,194 +187,188 @@
     <t>IMPDEMZ</t>
   </si>
   <si>
+    <t>Constants</t>
+  </si>
+  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
     <t>TimeSlice</t>
   </si>
   <si>
+    <t>G_DYEAR</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>G_YRFR</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>Default Units</t>
+  </si>
+  <si>
+    <t>~Currencies</t>
+  </si>
+  <si>
+    <t>~DefUnits</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>MEUR</t>
+  </si>
+  <si>
+    <t>Process_ActUnit</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>kPk</t>
+  </si>
+  <si>
+    <t>MPLN</t>
+  </si>
+  <si>
+    <t>Process_CapUnit</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>000_Units</t>
+  </si>
+  <si>
+    <t>Commodity_Unit</t>
+  </si>
+  <si>
+    <t>Unit Conversion</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B Euro</t>
+  </si>
+  <si>
+    <t>M Euro</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>Eur per bbl</t>
+  </si>
+  <si>
+    <t>Eur per GJ</t>
+  </si>
+  <si>
+    <t>Eur per ton</t>
+  </si>
+  <si>
+    <t>mEur per kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>MEuro</t>
+  </si>
+  <si>
+    <t>Activates Val_FLO reporting</t>
+  </si>
+  <si>
     <t>Other_Indexes</t>
   </si>
   <si>
-    <t>G_DYEAR</t>
-  </si>
-  <si>
-    <t>~Currencies</t>
-  </si>
-  <si>
-    <t>~DefUnits</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>RCA</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>MPLN</t>
-  </si>
-  <si>
-    <t>Process_ActUnit</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>kPk</t>
-  </si>
-  <si>
-    <t>MEuro</t>
-  </si>
-  <si>
-    <t>Process_CapUnit</t>
-  </si>
-  <si>
-    <t>PJa</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>000_Units</t>
-  </si>
-  <si>
-    <t>Commodity_Unit</t>
-  </si>
-  <si>
-    <t>~UnitConversion</t>
-  </si>
-  <si>
-    <t>from_unit</t>
-  </si>
-  <si>
-    <t>to_unit</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>QBtu</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>Mt</t>
-  </si>
-  <si>
-    <t>Kt</t>
-  </si>
-  <si>
-    <t>B Euro</t>
-  </si>
-  <si>
-    <t>M Euro</t>
-  </si>
-  <si>
-    <t>TBtu</t>
-  </si>
-  <si>
-    <t>ktoe</t>
-  </si>
-  <si>
-    <t>mtoe</t>
-  </si>
-  <si>
-    <t>Gwh</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>bEur</t>
-  </si>
-  <si>
-    <t>mEur</t>
-  </si>
-  <si>
-    <t>Eur per bbl</t>
-  </si>
-  <si>
-    <t>Eur per GJ</t>
-  </si>
-  <si>
-    <t>Eur per ton</t>
-  </si>
-  <si>
-    <t>mEur per kt</t>
-  </si>
-  <si>
-    <t>EJ</t>
-  </si>
-  <si>
-    <t>bcm</t>
-  </si>
-  <si>
-    <t>mbpd</t>
-  </si>
-  <si>
-    <t>Cents per Kwh</t>
-  </si>
-  <si>
     <t>RPT_OPT</t>
   </si>
   <si>
     <t>FLO~3</t>
-  </si>
-  <si>
-    <t>G_YRFR</t>
-  </si>
-  <si>
-    <t>MEUR</t>
-  </si>
-  <si>
-    <t>ELAND</t>
-  </si>
-  <si>
-    <t>DISCOUNT</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Currencies</t>
-  </si>
-  <si>
-    <t>Default Units</t>
-  </si>
-  <si>
-    <t>Unit Conversion</t>
-  </si>
-  <si>
-    <t>Activates Val_FLO reporting</t>
-  </si>
-  <si>
-    <t>ELD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,7 +640,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -607,8 +649,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -649,8 +692,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal 10" xfId="2" xr:uid="{214A5D26-AA07-4C86-8608-AB30794DDA3E}"/>
     <cellStyle name="Normal 10 2" xfId="3" xr:uid="{FD67AE21-7659-4BEF-BA07-8FCC28DE241B}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2CD431EE-317D-4086-8B1B-2D61C7F8EAC0}"/>
@@ -659,6 +704,7 @@
     <cellStyle name="Normalny 12" xfId="5" xr:uid="{430BBE80-D902-4303-BFEF-9109D46728E8}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{0868C53A-4E1B-4779-887A-A8B6723C23DB}"/>
     <cellStyle name="Normalny 2 3" xfId="7" xr:uid="{C8794B19-1223-4648-965D-15CA7601B8F7}"/>
+    <cellStyle name="Procentowy" xfId="8" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,13 +835,7 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -1120,23 +1160,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C23269-073D-4C5A-8892-F6A5C4E245F4}">
-  <dimension ref="B2:H61"/>
+  <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="2.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,14 +1189,14 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="12.75">
       <c r="B3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1207,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1183,75 +1225,131 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="28" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:8" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I6" s="1">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I8" s="1"/>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I9" s="1"/>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I10" s="1"/>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="I11" s="1"/>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I12" s="1"/>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I13" s="1"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:11" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:11" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="17" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="18" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="19" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="20" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="21" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="22" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="23" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="24" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="27" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="28" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="29" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1262,78 +1360,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990831A9-DF41-45DA-8726-D09EC4780855}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
-    <col min="7" max="7" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1">
       <c r="B5" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15.75">
       <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1">
       <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1">
       <c r="B11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" customHeight="1">
       <c r="B15"/>
     </row>
   </sheetData>
@@ -1351,135 +1459,135 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="1"/>
-    <col min="12" max="12" width="9.21875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="12.75" customHeight="1">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="15"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="13" spans="2:6" ht="12.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>5555</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C19" s="15">
         <v>9999</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1492,77 +1600,168 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5CF93-C7B6-403A-BEF2-34DB220AE215}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="16"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="14.25" customHeight="1">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="18.75" customHeight="1">
       <c r="B4" s="24" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="26.25" thickBot="1">
       <c r="B5" s="25" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" customHeight="1">
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D6" s="26">
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="18.75" customHeight="1">
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D7" s="23">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="29" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="29">
+        <v>51</v>
+      </c>
+      <c r="D8" s="30">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" ref="D9:D15" si="0">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="31">
+        <f>SUM(D8:D15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1582,353 +1781,353 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="11" spans="2:9" ht="18">
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11"/>
     </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D16" s="13">
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="15.75" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D20" s="13">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="1">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D22" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D24" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1">
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D26" s="13">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D28" s="13">
         <v>37.681199999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1">
         <v>2299</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1">
       <c r="B30" s="13" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D30" s="13">
         <v>2.7777769999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1">
         <f>1/3.6</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D33" s="17">
         <v>4.5</v>
@@ -1945,46 +2144,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="20"/>
+    <col min="1" max="1" width="2.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="18" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="21" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="13.5" thickBot="1">
       <c r="B6" s="22" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -1998,19 +2197,19 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
-    <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <xsd:import namespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="15" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="42a48416932bb65baf3a7cbcf6d2ace7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4335309c05d1392ebbf33165165bbcf" ns2:_="" ns3:_="">
+    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2019,14 +2218,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2034,7 +2237,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2047,50 +2250,60 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{934fa774-6324-4670-aa1a-daa689219115}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be4b9af-ad17-4489-a21e-b8b210aeb5f9">
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2100,6 +2313,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2111,8 +2350,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2211,39 +2450,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DF0508-E134-4C36-AFE9-9AAFDD53DF25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DF0508-E134-4C36-AFE9-9AAFDD53DF25}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C22B888-B004-4DDB-A401-1DC505E37364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D57D75A-4BFA-440E-9753-2C2F06D932D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC507C37-6D94-49C9-9631-28E3A5FDD97F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC507C37-6D94-49C9-9631-28E3A5FDD97F}"/>
 </file>